--- a/evaluation/results/autoencoder/split_3/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/autoencoder/split_3/test_95_5/evaluation_metrics.xlsx
@@ -500,34 +500,34 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.3576512455516014</v>
+        <v>0.3683274021352313</v>
       </c>
       <c r="C2">
-        <v>0.07197943444730077</v>
+        <v>0.0731070496083551</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.1342925659472422</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="F2">
-        <v>0.2794411177644711</v>
+        <v>0.2828282828282828</v>
       </c>
       <c r="G2">
-        <v>0.6685032139577594</v>
+        <v>0.6722068328716528</v>
       </c>
       <c r="H2">
-        <v>0.7993579454253612</v>
+        <v>0.8006286784376673</v>
       </c>
       <c r="I2">
         <v>28</v>
       </c>
       <c r="J2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="K2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.3239700374531835</v>
+        <v>0.3352059925093633</v>
       </c>
       <c r="D2">
-        <v>0.4893917963224894</v>
+        <v>0.5021037868162693</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.07197943444730077</v>
+        <v>0.0731070496083551</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1342925659472422</v>
+        <v>0.1362530413625304</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.3576512455516014</v>
+        <v>0.3683274021352313</v>
       </c>
       <c r="C4">
-        <v>0.3576512455516014</v>
+        <v>0.3683274021352313</v>
       </c>
       <c r="D4">
-        <v>0.3576512455516014</v>
+        <v>0.3683274021352313</v>
       </c>
       <c r="E4">
-        <v>0.3576512455516014</v>
+        <v>0.3683274021352313</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5359897172236504</v>
+        <v>0.5365535248041775</v>
       </c>
       <c r="C5">
-        <v>0.6619850187265918</v>
+        <v>0.6676029962546817</v>
       </c>
       <c r="D5">
-        <v>0.3118421811348658</v>
+        <v>0.3191784140893998</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9537640999368763</v>
+        <v>0.9538202800516618</v>
       </c>
       <c r="C6">
-        <v>0.3576512455516014</v>
+        <v>0.3683274021352313</v>
       </c>
       <c r="D6">
-        <v>0.471700019720164</v>
+        <v>0.4838763475409941</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="C2">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3">
